--- a/Word Meaning.xlsx
+++ b/Word Meaning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Eager</t>
   </si>
@@ -32,28 +32,34 @@
     <t>Appealing</t>
   </si>
   <si>
-    <t>Supine</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>The dawn in the early morning</t>
-  </si>
-  <si>
-    <t>Lying face Upward</t>
-  </si>
-  <si>
-    <t>Strongly wanted t do</t>
-  </si>
-  <si>
-    <t>Attractive</t>
-  </si>
-  <si>
     <t>Embrace</t>
   </si>
   <si>
     <t>To hold someone tightly .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strongly wanted to do                   We look forward to your lecture with eager anticipation.</t>
+  </si>
+  <si>
+    <t>Attractive                                           The Government is appealing to everyone to save water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   He embraces the new information age .</t>
+  </si>
+  <si>
+    <t>Attain</t>
+  </si>
+  <si>
+    <t>Achive                                                 No one can attain to truth by himself.</t>
+  </si>
+  <si>
+    <t>Admirable</t>
+  </si>
+  <si>
+    <t>Excellence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    I admire your spirit.</t>
   </si>
 </sst>
 </file>
@@ -445,58 +451,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
